--- a/data/2019/Fell/Extracted Leo Pollard Memorial.xlsx
+++ b/data/2019/Fell/Extracted Leo Pollard Memorial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2019\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921292A-DE33-423A-B1B2-71954F27D6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B589D6-8330-4BDE-A7A3-69AB2F1B1E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="170">
   <si>
     <t>Vet</t>
   </si>
@@ -7805,7 +7805,7 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -8660,8 +8660,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -8693,9 +8693,6 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -8703,9 +8700,6 @@
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -8713,9 +8707,6 @@
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -8723,9 +8714,6 @@
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -8733,9 +8721,6 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -8743,9 +8728,6 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -8753,9 +8735,6 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -8769,9 +8748,6 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -8779,9 +8755,6 @@
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -8789,9 +8762,6 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -8799,9 +8769,6 @@
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -8809,9 +8776,6 @@
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -8819,9 +8783,6 @@
       <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -8829,9 +8790,6 @@
       <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -8851,9 +8809,6 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="14.25">
-      <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -8861,9 +8816,6 @@
       <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -8871,9 +8823,6 @@
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:12" ht="14.25">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -8881,9 +8830,6 @@
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:12" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
@@ -8891,9 +8837,6 @@
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:12" ht="14.25">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -8901,9 +8844,6 @@
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:12" ht="14.25">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -8911,9 +8851,6 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:12" ht="14.25">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -8927,9 +8864,6 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -8937,9 +8871,6 @@
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="14.25">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -8947,9 +8878,6 @@
       <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:12" ht="14.25">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -8957,9 +8885,6 @@
       <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:12" ht="14.25">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -8967,9 +8892,6 @@
       <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:12" ht="14.25">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -8977,9 +8899,6 @@
       <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:12" ht="14.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -8987,9 +8906,6 @@
       <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:12" ht="14.25">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -9002,70 +8918,49 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="49" spans="2:6" ht="14.25">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="50" spans="2:6" ht="14.25">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="51" spans="2:6" ht="14.25">
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="52" spans="2:6" ht="14.25">
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="53" spans="2:6" ht="14.25">
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="54" spans="2:6" ht="14.25">
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="55" spans="2:6" ht="14.25">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
